--- a/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume Touzé\Documents\GitHub\STUF2019\CR - Cost Report\BOM\ST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6215E2E4-9FA1-404D-93D4-AE2DEEB6A72F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>System</t>
   </si>
@@ -58,18 +57,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -127,15 +114,9 @@
     <t>b</t>
   </si>
   <si>
-    <t>Tapped insert</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>Tapped, glued to carbon tube</t>
-  </si>
-  <si>
     <t>ST_A0100</t>
   </si>
   <si>
@@ -145,36 +126,18 @@
     <t>Spacer</t>
   </si>
   <si>
-    <t>Spacer between the steering whel and the Quick release</t>
-  </si>
-  <si>
     <t>Quick Release mobil part</t>
   </si>
   <si>
-    <t>Removing part of the Quick release.</t>
-  </si>
-  <si>
     <t>Steering shaft</t>
   </si>
   <si>
     <t>ST_A0300</t>
   </si>
   <si>
-    <t>Quick Release Steel Sleeve</t>
-  </si>
-  <si>
-    <t>Fixed part of the Quick release.</t>
-  </si>
-  <si>
     <t>ST_03001</t>
   </si>
   <si>
-    <t>Steering Upper Shaft Pivot</t>
-  </si>
-  <si>
-    <t>Bearing seat for the steering pivot.</t>
-  </si>
-  <si>
     <t>ST_03002</t>
   </si>
   <si>
@@ -187,15 +150,6 @@
     <t>Spline coupler</t>
   </si>
   <si>
-    <t>To connect the steering column to the steering rack.</t>
-  </si>
-  <si>
-    <t>Bearing</t>
-  </si>
-  <si>
-    <t>Steering pivot bearings.</t>
-  </si>
-  <si>
     <t>ST_A0200</t>
   </si>
   <si>
@@ -205,9 +159,6 @@
     <t>ST_02002</t>
   </si>
   <si>
-    <t>U-joint between the steering column and ST_02002.</t>
-  </si>
-  <si>
     <t>ST_02003</t>
   </si>
   <si>
@@ -230,12 +181,84 @@
   </si>
   <si>
     <t>Bought at Formula Seven.</t>
+  </si>
+  <si>
+    <t>Carbon tube</t>
+  </si>
+  <si>
+    <t>Steering Shaft Pivot</t>
+  </si>
+  <si>
+    <t>Tapped insert, right hand</t>
+  </si>
+  <si>
+    <t>Tapped insert, left hand</t>
+  </si>
+  <si>
+    <t>carbon tubes for tie rod</t>
+  </si>
+  <si>
+    <t>Right-hand thread, glued to carbon tube</t>
+  </si>
+  <si>
+    <t>Left-hand thread, glued to carbon tube</t>
+  </si>
+  <si>
+    <t>U-joint for steering column and ST_02002</t>
+  </si>
+  <si>
+    <t>Connect the steering column to the rack</t>
+  </si>
+  <si>
+    <t>2 with a left-hand thread</t>
+  </si>
+  <si>
+    <t>2 with a right-hand thread</t>
+  </si>
+  <si>
+    <t>ST_04007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacer </t>
+  </si>
+  <si>
+    <t>M6 type 16 mm spacer</t>
+  </si>
+  <si>
+    <t>M6 type 25 mm spacer</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, male r</t>
+  </si>
+  <si>
+    <t>Rod ends bearing, male l</t>
+  </si>
+  <si>
+    <t>Quick Release Shaft</t>
+  </si>
+  <si>
+    <t>Bearing, Ball, Radial</t>
+  </si>
+  <si>
+    <t>Steering pivot bearings</t>
+  </si>
+  <si>
+    <t>Bearing seat for the steering pivot</t>
+  </si>
+  <si>
+    <t>Fixed part of the Quick release</t>
+  </si>
+  <si>
+    <t>Removing part of the Quick release</t>
+  </si>
+  <si>
+    <t>Between steering wheel and Quick release</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,21 +658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -663,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -680,137 +703,137 @@
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>51</v>
@@ -819,246 +842,265 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3">
         <v>4</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>9</v>
+        <v>57</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\ST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume Touzé\Documents\GitHub\STUF2019\CR - Cost Report\BOM\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C90488-A60C-43E2-830F-43089FDABD20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>System</t>
   </si>
@@ -254,11 +255,20 @@
   <si>
     <t>Between steering wheel and Quick release</t>
   </si>
+  <si>
+    <t>Steering Rack protection</t>
+  </si>
+  <si>
+    <t>To protect the steering rack.</t>
+  </si>
+  <si>
+    <t>ST_03003</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,12 +668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,133 +965,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1094,12 +1104,31 @@
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume Touzé\Documents\GitHub\STUF2019\CR - Cost Report\BOM\ST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C90488-A60C-43E2-830F-43089FDABD20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -268,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -668,12 +667,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>System</t>
   </si>
@@ -219,15 +219,6 @@
     <t>ST_04007</t>
   </si>
   <si>
-    <t xml:space="preserve">Spacer </t>
-  </si>
-  <si>
-    <t>M6 type 16 mm spacer</t>
-  </si>
-  <si>
-    <t>M6 type 25 mm spacer</t>
-  </si>
-  <si>
     <t>Rod ends bearing, male r</t>
   </si>
   <si>
@@ -262,6 +253,18 @@
   </si>
   <si>
     <t>ST_03003</t>
+  </si>
+  <si>
+    <t>Spacer 1</t>
+  </si>
+  <si>
+    <t>Spacer 2</t>
+  </si>
+  <si>
+    <t>M6 type 16 mm spacer, frame side</t>
+  </si>
+  <si>
+    <t>M6 type 25 mm spacer, wheel side</t>
   </si>
 </sst>
 </file>
@@ -672,7 +675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -773,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -801,13 +804,13 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -896,13 +899,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -968,19 +971,19 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1059,7 +1062,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
@@ -1078,7 +1081,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>20</v>
@@ -1097,16 +1100,16 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>16</v>
@@ -1116,16 +1119,16 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>55</v>

--- a/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>System</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>M6 type 25 mm spacer, wheel side</t>
+  </si>
+  <si>
+    <t>Over steering u-joint</t>
+  </si>
+  <si>
+    <t>ST_02007</t>
+  </si>
+  <si>
+    <t>U-joint boot</t>
   </si>
 </sst>
 </file>
@@ -671,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,223 +923,242 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="3">
         <v>4</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\ST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume Touzé\Documents\GitHub\STUF2019\CR - Cost Report\BOM\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D08C8A-E4A4-4273-98DE-740E494907AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,22 @@
     <sheet name="ST_A0300" sheetId="6" r:id="rId4"/>
     <sheet name="ST_A0400" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="172">
   <si>
     <t>System</t>
   </si>
@@ -298,9 +304,6 @@
     <t>ST_A0100_P</t>
   </si>
   <si>
-    <t>To be completed</t>
-  </si>
-  <si>
     <t>Materials</t>
   </si>
   <si>
@@ -310,12 +313,6 @@
     <t>Fasteners</t>
   </si>
   <si>
-    <t>Tooling</t>
-  </si>
-  <si>
-    <t>Tba</t>
-  </si>
-  <si>
     <t>ST_A0200_P</t>
   </si>
   <si>
@@ -323,12 +320,267 @@
   </si>
   <si>
     <t>ST_A0400_P</t>
+  </si>
+  <si>
+    <t>Bolt grade 12.9</t>
+  </si>
+  <si>
+    <t>To attach the steering wheel</t>
+  </si>
+  <si>
+    <t>Nut grade 12.9</t>
+  </si>
+  <si>
+    <t>Aluminium 2017A</t>
+  </si>
+  <si>
+    <t>Washer , steel stainless</t>
+  </si>
+  <si>
+    <t>Machining setup, install and remove</t>
+  </si>
+  <si>
+    <t>Raw material, 55x55x28 mm</t>
+  </si>
+  <si>
+    <t>Machining (CNC)</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Drilled hole</t>
+  </si>
+  <si>
+    <t>First face</t>
+  </si>
+  <si>
+    <t>Machining setup, change</t>
+  </si>
+  <si>
+    <t>For the second face</t>
+  </si>
+  <si>
+    <t>Tighten bolts</t>
+  </si>
+  <si>
+    <t>Assemble by hand</t>
+  </si>
+  <si>
+    <t>Fastener install</t>
+  </si>
+  <si>
+    <t>For the hole for the shift paddles</t>
+  </si>
+  <si>
+    <t>ST_01003, ST_01002 and ST_01001</t>
+  </si>
+  <si>
+    <t>ST - Steering shaft</t>
+  </si>
+  <si>
+    <t>Steel, 25CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circular section : diameter 32mm </t>
+  </si>
+  <si>
+    <t>First side</t>
+  </si>
+  <si>
+    <t>For the second side</t>
+  </si>
+  <si>
+    <t>Tubing, Steel, 25CD4S</t>
+  </si>
+  <si>
+    <t>Length of 343mm</t>
+  </si>
+  <si>
+    <t>Painting, aerosol apply</t>
+  </si>
+  <si>
+    <t>To machine one side</t>
+  </si>
+  <si>
+    <t>Saw or tubing cut</t>
+  </si>
+  <si>
+    <t>Retaining ring, external</t>
+  </si>
+  <si>
+    <t>Welding (Steel)</t>
+  </si>
+  <si>
+    <t>Between ST_02001 and ST_02002</t>
+  </si>
+  <si>
+    <t>Preparing</t>
+  </si>
+  <si>
+    <t>Between ST_02002 and ST_02003</t>
+  </si>
+  <si>
+    <t>Between ST_02003 and ST_02004</t>
+  </si>
+  <si>
+    <t>Between ST_02004 and ST_02005</t>
+  </si>
+  <si>
+    <t>ST_02006 on ST_02002</t>
+  </si>
+  <si>
+    <t>Press operations</t>
+  </si>
+  <si>
+    <t>For the retaining ring</t>
+  </si>
+  <si>
+    <t>ST_02007 on ST_02003</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>Raw material, 45x16x16 mm</t>
+  </si>
+  <si>
+    <t>For the half moon</t>
+  </si>
+  <si>
+    <t>Aluminium, 2017A (sheet)</t>
+  </si>
+  <si>
+    <t>Sheet materials, 180x355mm</t>
+  </si>
+  <si>
+    <t>Laser cut, setup, install and remove</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>Bending</t>
+  </si>
+  <si>
+    <t>Bolt grade 8.8</t>
+  </si>
+  <si>
+    <t>Nut grade 8.8</t>
+  </si>
+  <si>
+    <t>ST_03002 and ST_03001</t>
+  </si>
+  <si>
+    <t>ST - Tie rods</t>
+  </si>
+  <si>
+    <t>M4, for ST_03003</t>
+  </si>
+  <si>
+    <t>M4,  for ST_03003</t>
+  </si>
+  <si>
+    <t>For the steering rack bolts, 2 holes</t>
+  </si>
+  <si>
+    <t>For the steering wheel bolts, 3 holes</t>
+  </si>
+  <si>
+    <t>4 holes</t>
+  </si>
+  <si>
+    <t>Side view profile</t>
+  </si>
+  <si>
+    <t>Tapping hole</t>
+  </si>
+  <si>
+    <t>Right hand</t>
+  </si>
+  <si>
+    <t>left hand</t>
+  </si>
+  <si>
+    <t>Machining (Conventionnal)</t>
+  </si>
+  <si>
+    <t>Aluminium, 7075 T6</t>
+  </si>
+  <si>
+    <t>Raw material, D=18 mm and L=35mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel, 30NCD8 </t>
+  </si>
+  <si>
+    <t>Raw material, D=18 mm and L=16mm</t>
+  </si>
+  <si>
+    <t>Raw material, D=10 mm and L=25mm</t>
+  </si>
+  <si>
+    <t>k-nut</t>
+  </si>
+  <si>
+    <t>Nut, Low hex. Nut</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>Hand finish</t>
+  </si>
+  <si>
+    <t>Surface cleaning, by hand</t>
+  </si>
+  <si>
+    <t>ST_04001 and ST_04003</t>
+  </si>
+  <si>
+    <t>Liquid applicator gun</t>
+  </si>
+  <si>
+    <t>To apply the glue</t>
+  </si>
+  <si>
+    <t>Surface of ST_04001</t>
+  </si>
+  <si>
+    <t>Surface of ST_04002</t>
+  </si>
+  <si>
+    <t>ST_04002 and ST_04003</t>
+  </si>
+  <si>
+    <t>ST_04001 and ST_04004 with the nut</t>
+  </si>
+  <si>
+    <t>For the nut</t>
+  </si>
+  <si>
+    <t>ST_04001 and ST_04005</t>
+  </si>
+  <si>
+    <t>ST_04004 and ST_04006</t>
+  </si>
+  <si>
+    <t>ST_04005 and ST_04007</t>
+  </si>
+  <si>
+    <t>6mm hole in the Tie rod Braces, 2 holes</t>
+  </si>
+  <si>
+    <t>2 bending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -799,27 +1051,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -857,7 +1109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -876,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -895,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -914,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -929,7 +1181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -948,7 +1200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -967,7 +1219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
@@ -986,7 +1238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -1005,7 +1257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -1024,7 +1276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -1043,7 +1295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -1062,7 +1314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
@@ -1096,7 +1348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
@@ -1115,7 +1367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
@@ -1134,7 +1386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
@@ -1168,7 +1420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
@@ -1187,7 +1439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
@@ -1206,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
@@ -1225,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
@@ -1244,7 +1496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
@@ -1263,7 +1515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
@@ -1289,25 +1541,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>78</v>
       </c>
@@ -1347,7 +1599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>79</v>
@@ -1363,7 +1615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1371,17 +1623,17 @@
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1389,141 +1641,137 @@
         <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>1</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>86</v>
+        <v>104</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>97</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
+        <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
@@ -1539,25 +1787,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1565,87 +1813,115 @@
         <v>82</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <v>1</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>86</v>
+        <v>142</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>1</v>
       </c>
       <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1654,25 +1930,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1698,9 +1974,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1712,7 +1988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>79</v>
@@ -1723,10 +1999,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1734,17 +2010,15 @@
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>86</v>
+        <v>119</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1752,157 +2026,155 @@
         <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>86</v>
+        <v>118</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>86</v>
+        <v>119</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>1</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>86</v>
+        <v>120</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>119</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>86</v>
+        <v>121</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>86</v>
+        <v>123</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1910,35 +2182,27 @@
         <v>82</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>86</v>
+        <v>126</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1946,85 +2210,81 @@
         <v>83</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>86</v>
+        <v>116</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>1</v>
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2032,17 +2292,17 @@
         <v>82</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>86</v>
+        <v>109</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2050,87 +2310,179 @@
         <v>82</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <v>1</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>86</v>
+        <v>110</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <v>1</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>86</v>
+        <v>112</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
       </c>
       <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2139,25 +2491,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2183,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>78</v>
       </c>
@@ -2197,7 +2550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>79</v>
@@ -2210,10 +2563,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2221,17 +2574,17 @@
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>86</v>
+        <v>137</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2239,92 +2592,88 @@
         <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
+        <v>1</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>139</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>86</v>
+        <v>140</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>20</v>
@@ -2337,165 +2686,327 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>86</v>
+        <v>170</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>86</v>
+        <v>127</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>86</v>
+        <v>127</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>128</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>1</v>
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2504,25 +3015,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2548,9 +3060,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2562,7 +3074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>79</v>
@@ -2575,134 +3087,126 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>86</v>
+        <v>156</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>2</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>86</v>
+        <v>162</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>86</v>
+        <v>162</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>86</v>
+        <v>161</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2710,105 +3214,701 @@
         <v>82</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>86</v>
+        <v>166</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>86</v>
+      <c r="E12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <v>1</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>86</v>
+        <v>163</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="E30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="E38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume Touzé\Documents\GitHub\STUF2019\CR - Cost Report\BOM\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D08C8A-E4A4-4273-98DE-740E494907AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E600E-9CE9-4D20-830E-8ED856130FC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,9 +529,6 @@
     <t>Nut, Low hex. Nut</t>
   </si>
   <si>
-    <t>glue</t>
-  </si>
-  <si>
     <t>Hand finish</t>
   </si>
   <si>
@@ -575,6 +572,9 @@
   </si>
   <si>
     <t>2 bending</t>
+  </si>
+  <si>
+    <t>Glue, Structural  Epoxy Adhesive</t>
   </si>
 </sst>
 </file>
@@ -2713,7 +2713,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -3001,7 +3001,7 @@
         <v>134</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G29" s="8">
         <v>1</v>
@@ -3019,7 +3019,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,7 +3098,7 @@
         <v>81</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
@@ -3124,10 +3124,10 @@
         <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -3142,10 +3142,10 @@
         <v>82</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -3163,7 +3163,7 @@
         <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -3178,10 +3178,10 @@
         <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -3235,7 +3235,7 @@
         <v>102</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -3276,10 +3276,10 @@
         <v>82</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -3294,10 +3294,10 @@
         <v>82</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -3315,7 +3315,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -3330,10 +3330,10 @@
         <v>82</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -3351,7 +3351,7 @@
         <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G19" s="7">
         <v>1</v>
@@ -3369,7 +3369,7 @@
         <v>101</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>

--- a/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
+++ b/CR - Cost Report/BOM/ST/STA0100_to_STA0400.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume Touzé\Documents\GitHub\STUF2019\CR - Cost Report\BOM\ST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\S603682\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E600E-9CE9-4D20-830E-8ED856130FC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="ST_A0300" sheetId="6" r:id="rId4"/>
     <sheet name="ST_A0400" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="188">
   <si>
     <t>System</t>
   </si>
@@ -328,9 +327,6 @@
     <t>To attach the steering wheel</t>
   </si>
   <si>
-    <t>Nut grade 12.9</t>
-  </si>
-  <si>
     <t>Aluminium 2017A</t>
   </si>
   <si>
@@ -355,15 +351,9 @@
     <t>Drilled hole</t>
   </si>
   <si>
-    <t>First face</t>
-  </si>
-  <si>
     <t>Machining setup, change</t>
   </si>
   <si>
-    <t>For the second face</t>
-  </si>
-  <si>
     <t>Tighten bolts</t>
   </si>
   <si>
@@ -373,9 +363,6 @@
     <t>Fastener install</t>
   </si>
   <si>
-    <t>For the hole for the shift paddles</t>
-  </si>
-  <si>
     <t>ST_01003, ST_01002 and ST_01001</t>
   </si>
   <si>
@@ -388,12 +375,6 @@
     <t xml:space="preserve">Circular section : diameter 32mm </t>
   </si>
   <si>
-    <t>First side</t>
-  </si>
-  <si>
-    <t>For the second side</t>
-  </si>
-  <si>
     <t>Tubing, Steel, 25CD4S</t>
   </si>
   <si>
@@ -403,9 +384,6 @@
     <t>Painting, aerosol apply</t>
   </si>
   <si>
-    <t>To machine one side</t>
-  </si>
-  <si>
     <t>Saw or tubing cut</t>
   </si>
   <si>
@@ -430,9 +408,6 @@
     <t>Between ST_02004 and ST_02005</t>
   </si>
   <si>
-    <t>ST_02006 on ST_02002</t>
-  </si>
-  <si>
     <t>Press operations</t>
   </si>
   <si>
@@ -448,12 +423,6 @@
     <t>Raw material, 45x16x16 mm</t>
   </si>
   <si>
-    <t>For the half moon</t>
-  </si>
-  <si>
-    <t>Aluminium, 2017A (sheet)</t>
-  </si>
-  <si>
     <t>Sheet materials, 180x355mm</t>
   </si>
   <si>
@@ -472,9 +441,6 @@
     <t>Nut grade 8.8</t>
   </si>
   <si>
-    <t>ST_03002 and ST_03001</t>
-  </si>
-  <si>
     <t>ST - Tie rods</t>
   </si>
   <si>
@@ -484,21 +450,9 @@
     <t>M4,  for ST_03003</t>
   </si>
   <si>
-    <t>For the steering rack bolts, 2 holes</t>
-  </si>
-  <si>
-    <t>For the steering wheel bolts, 3 holes</t>
-  </si>
-  <si>
     <t>4 holes</t>
   </si>
   <si>
-    <t>Side view profile</t>
-  </si>
-  <si>
-    <t>Tapping hole</t>
-  </si>
-  <si>
     <t>Right hand</t>
   </si>
   <si>
@@ -553,15 +507,6 @@
     <t>ST_04002 and ST_04003</t>
   </si>
   <si>
-    <t>ST_04001 and ST_04004 with the nut</t>
-  </si>
-  <si>
-    <t>For the nut</t>
-  </si>
-  <si>
-    <t>ST_04001 and ST_04005</t>
-  </si>
-  <si>
     <t>ST_04004 and ST_04006</t>
   </si>
   <si>
@@ -575,12 +520,114 @@
   </si>
   <si>
     <t>Glue, Structural  Epoxy Adhesive</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>Fixture</t>
+  </si>
+  <si>
+    <t>During dry time</t>
+  </si>
+  <si>
+    <t>Turning</t>
+  </si>
+  <si>
+    <t>Turning+ flat spot</t>
+  </si>
+  <si>
+    <t>Turning + flat spot</t>
+  </si>
+  <si>
+    <t>Assemble on fixture for dry time</t>
+  </si>
+  <si>
+    <t>for fixture, same as on the car</t>
+  </si>
+  <si>
+    <t>same as on the fixture</t>
+  </si>
+  <si>
+    <t>ST_04001 and ST_04005 with the nut</t>
+  </si>
+  <si>
+    <t>ST_04002 and ST_04004 with the nut</t>
+  </si>
+  <si>
+    <t>Tighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Untighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Remove from the fixture</t>
+  </si>
+  <si>
+    <t>Bolt grade 8,8</t>
+  </si>
+  <si>
+    <t>Nut grade 8,8</t>
+  </si>
+  <si>
+    <t>Machining (conventionnal)</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Black color</t>
+  </si>
+  <si>
+    <t>On ST_02004 and ST_02005</t>
+  </si>
+  <si>
+    <t>1 x ST_02006 on ST_02002</t>
+  </si>
+  <si>
+    <t>Steering shaft on rack and frame</t>
+  </si>
+  <si>
+    <t>Turning, First side</t>
+  </si>
+  <si>
+    <t>Turning, For the second side</t>
+  </si>
+  <si>
+    <t>ST - Steering rack</t>
+  </si>
+  <si>
+    <t>Milling, For the half moon</t>
+  </si>
+  <si>
+    <t>Milling, 2 holes</t>
+  </si>
+  <si>
+    <t>Milling</t>
+  </si>
+  <si>
+    <t>Milling, First face</t>
+  </si>
+  <si>
+    <t>Milling, For the second face</t>
+  </si>
+  <si>
+    <t>ST_03003 on frame tabs</t>
+  </si>
+  <si>
+    <t>ST_03002 and ST_03001 with tabs</t>
+  </si>
+  <si>
+    <t>Turning, hole for steering column</t>
+  </si>
+  <si>
+    <t>Plexiglass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1051,12 +1098,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,11 +1588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,10 +1670,10 @@
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -1641,7 +1688,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8">
@@ -1649,37 +1696,39 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -1688,117 +1737,117 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="8">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="8">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7"/>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G12" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1813,9 +1862,11 @@
         <v>82</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="G15" s="8">
         <v>1</v>
       </c>
@@ -1829,9 +1880,11 @@
         <v>82</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
@@ -1845,10 +1898,10 @@
         <v>82</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -1863,65 +1916,15 @@
         <v>82</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
       </c>
       <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1930,11 +1933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1979,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2007,12 +2010,14 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="G4" s="8">
         <v>1</v>
       </c>
@@ -2022,18 +2027,10 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,7 +2041,7 @@
         <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8">
@@ -2060,10 +2057,10 @@
         <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -2078,7 +2075,7 @@
         <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8">
@@ -2094,10 +2091,10 @@
         <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -2112,7 +2109,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8">
@@ -2128,10 +2125,10 @@
         <v>82</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -2146,11 +2143,9 @@
         <v>82</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8">
         <v>1</v>
       </c>
@@ -2164,10 +2159,10 @@
         <v>82</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -2182,24 +2177,30 @@
         <v>82</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2207,45 +2208,49 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>35</v>
-      </c>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -2260,9 +2265,11 @@
         <v>82</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="G19" s="8">
         <v>1</v>
       </c>
@@ -2272,16 +2279,10 @@
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,47 +2290,45 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="8">
         <v>1</v>
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7"/>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G23" s="8">
         <v>1</v>
@@ -2344,42 +2343,46 @@
         <v>82</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="G24" s="8">
         <v>1</v>
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>37</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="G26" s="8">
         <v>1</v>
@@ -2394,9 +2397,11 @@
         <v>82</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="G27" s="8">
         <v>1</v>
       </c>
@@ -2410,59 +2415,61 @@
         <v>82</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="G28" s="8">
         <v>1</v>
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="G31" s="8">
         <v>1</v>
       </c>
@@ -2476,13 +2483,65 @@
         <v>82</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8">
         <v>1</v>
       </c>
       <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2491,11 +2550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,7 +2597,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2574,10 +2633,10 @@
         <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -2592,7 +2651,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8">
@@ -2608,10 +2667,10 @@
         <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -2626,7 +2685,7 @@
         <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8">
@@ -2642,10 +2701,10 @@
         <v>83</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G8" s="8">
         <v>4</v>
@@ -2660,45 +2719,49 @@
         <v>83</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G9" s="8">
         <v>4</v>
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>28</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G11" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -2707,101 +2770,99 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="G12" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="8">
-        <v>4</v>
-      </c>
-      <c r="H13" s="7"/>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="G14" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="8">
-        <v>4</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -2816,9 +2877,11 @@
         <v>82</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="G18" s="8">
         <v>1</v>
       </c>
@@ -2832,9 +2895,11 @@
         <v>82</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="G19" s="8">
         <v>1</v>
       </c>
@@ -2848,10 +2913,10 @@
         <v>82</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -2866,9 +2931,11 @@
         <v>82</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="G21" s="8">
         <v>1</v>
       </c>
@@ -2882,61 +2949,59 @@
         <v>82</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>141</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="8">
         <v>1</v>
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>131</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="8">
         <v>1</v>
       </c>
@@ -2950,7 +3015,7 @@
         <v>82</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8">
@@ -2966,7 +3031,7 @@
         <v>82</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8">
@@ -2982,7 +3047,7 @@
         <v>82</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8">
@@ -2998,10 +3063,10 @@
         <v>82</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G29" s="8">
         <v>1</v>
@@ -3015,11 +3080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,7 +3093,7 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
@@ -3062,7 +3127,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3098,7 +3163,7 @@
         <v>81</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
@@ -3124,10 +3189,10 @@
         <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -3142,10 +3207,10 @@
         <v>82</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -3159,11 +3224,11 @@
       <c r="D8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>158</v>
+      <c r="E8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -3177,11 +3242,11 @@
       <c r="D9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>160</v>
+      <c r="E9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -3196,10 +3261,10 @@
         <v>82</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -3213,11 +3278,11 @@
       <c r="D11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>165</v>
+      <c r="E11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -3231,13 +3296,13 @@
       <c r="D12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>102</v>
+      <c r="E12" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="7">
+        <v>161</v>
+      </c>
+      <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="7"/>
@@ -3246,26 +3311,28 @@
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3275,13 +3342,13 @@
       <c r="D15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>156</v>
+      <c r="E15" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="8">
+        <v>147</v>
+      </c>
+      <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="7"/>
@@ -3293,11 +3360,11 @@
       <c r="D16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>157</v>
+      <c r="E16" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -3312,12 +3379,12 @@
         <v>82</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="7">
+        <v>148</v>
+      </c>
+      <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="7"/>
@@ -3329,13 +3396,13 @@
       <c r="D18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="E18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="7">
         <v>1</v>
       </c>
       <c r="H18" s="7"/>
@@ -3348,12 +3415,12 @@
         <v>82</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="7">
+        <v>160</v>
+      </c>
+      <c r="G19" s="8">
         <v>1</v>
       </c>
       <c r="H19" s="7"/>
@@ -3366,10 +3433,10 @@
         <v>82</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="8" t="s">
         <v>165</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -3380,18 +3447,10 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3402,9 +3461,11 @@
         <v>82</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="G22" s="8">
         <v>1</v>
       </c>
@@ -3414,10 +3475,18 @@
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3425,15 +3494,15 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="8">
+        <v>82</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7">
         <v>1</v>
       </c>
       <c r="H24" s="7"/>
@@ -3443,13 +3512,13 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G25" s="8">
         <v>1</v>
@@ -3460,18 +3529,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="8">
-        <v>2</v>
-      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3482,13 +3543,13 @@
         <v>83</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G27" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -3500,47 +3561,49 @@
         <v>83</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="8">
         <v>2</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G30" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -3549,14 +3612,16 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G31" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -3564,16 +3629,10 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
+      <c r="G32" s="8"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3581,47 +3640,47 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G33" s="8">
         <v>1</v>
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7"/>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -3636,42 +3695,46 @@
         <v>82</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="G36" s="8">
         <v>1</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G38" s="8">
         <v>1</v>
@@ -3688,40 +3751,42 @@
       <c r="E39" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="G39" s="8">
         <v>1</v>
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7"/>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G41" s="8">
         <v>1</v>
@@ -3736,9 +3801,11 @@
         <v>82</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="G42" s="8">
         <v>1</v>
       </c>
@@ -3752,10 +3819,10 @@
         <v>82</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G43" s="8">
         <v>1</v>
@@ -3770,59 +3837,63 @@
         <v>82</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="G44" s="8">
         <v>1</v>
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G46" s="8">
-        <v>1</v>
-      </c>
-      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="G47" s="8">
         <v>1</v>
       </c>
@@ -3836,7 +3907,7 @@
         <v>82</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8">
@@ -3844,51 +3915,51 @@
       </c>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G50" s="8">
-        <v>1</v>
-      </c>
-      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G51" s="8">
         <v>1</v>
       </c>
@@ -3902,13 +3973,29 @@
         <v>82</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8">
         <v>1</v>
       </c>
       <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
